--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>730451.6462028357</v>
+        <v>727580.0089715724</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8444415.160587979</v>
+        <v>8444421.381715724</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11950137.05835347</v>
+        <v>11950119.78127857</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>106.7209824064456</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>69.10519556833665</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>10.03156470826291</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>54.47555601903397</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>360.6967988513969</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>247.4073273774619</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>8.546296656423063</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>102.6026542729164</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>330.4248760205908</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>298.3540381929898</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>27.23382699312524</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>56.49576810820431</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>133.2205257453317</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>55.262807114933</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873203</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -1664,7 +1664,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470136</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,19 +1765,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>74.75769145492306</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>24.97383429440975</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238242</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>113.510364625081</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>191.222711778982</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292629</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851119</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247759</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734101331</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>13.21455103355022</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>93.74486828112458</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004751</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>120.6353666620239</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2533,7 +2533,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>190.1908458475695</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H26" t="n">
-        <v>285.5805435513399</v>
+        <v>285.4442069312963</v>
       </c>
       <c r="I26" t="n">
-        <v>7.594561284787943</v>
+        <v>7.081331206015648</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>89.10156188094686</v>
+        <v>88.79820333299216</v>
       </c>
       <c r="T26" t="n">
-        <v>200.0593924064816</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2646,13 +2646,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>134.5278481273043</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H27" t="n">
-        <v>85.04200907392679</v>
+        <v>84.97321768248378</v>
       </c>
       <c r="I27" t="n">
-        <v>2.579389070766624</v>
+        <v>2.334151821526078</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>119.3833537044362</v>
+        <v>119.2510505515019</v>
       </c>
       <c r="T27" t="n">
-        <v>188.8156065720235</v>
+        <v>188.7868966316347</v>
       </c>
       <c r="U27" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>144.4353940427165</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6304170232079</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>141.2396273813004</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>70.88542329426701</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>182.7743669785568</v>
       </c>
       <c r="T28" t="n">
-        <v>217.8595503594825</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U28" t="n">
-        <v>257.3828811463022</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H29" t="n">
-        <v>285.5805435513399</v>
+        <v>285.4442069312963</v>
       </c>
       <c r="I29" t="n">
-        <v>7.594561284787943</v>
+        <v>7.081331206015648</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>89.10156188094686</v>
+        <v>88.79820333299216</v>
       </c>
       <c r="T29" t="n">
-        <v>200.0593924064816</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2883,13 +2883,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.5278481273043</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H30" t="n">
-        <v>85.04200907392679</v>
+        <v>84.97321768248378</v>
       </c>
       <c r="I30" t="n">
-        <v>2.579389070766624</v>
+        <v>2.334151821526078</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>119.3833537044362</v>
+        <v>119.2510505515019</v>
       </c>
       <c r="T30" t="n">
-        <v>188.8156065720235</v>
+        <v>188.7868966316347</v>
       </c>
       <c r="U30" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>165.2482524947748</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,10 +2959,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>135.3933002582387</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>70.8854232942676</v>
       </c>
       <c r="S31" t="n">
-        <v>182.8784344308282</v>
+        <v>182.7743669785568</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H32" t="n">
-        <v>285.5805435513399</v>
+        <v>285.4442069312964</v>
       </c>
       <c r="I32" t="n">
-        <v>7.594561284787943</v>
+        <v>7.081331206015705</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>89.10156188094686</v>
+        <v>88.7982033329922</v>
       </c>
       <c r="T32" t="n">
-        <v>200.0593924064816</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>134.5278481273043</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H33" t="n">
-        <v>85.04200907392679</v>
+        <v>84.97321768248378</v>
       </c>
       <c r="I33" t="n">
-        <v>2.579389070766624</v>
+        <v>2.334151821526106</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>119.3833537044362</v>
+        <v>119.2510505515019</v>
       </c>
       <c r="T33" t="n">
-        <v>188.8156065720235</v>
+        <v>188.7868966316347</v>
       </c>
       <c r="U33" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>144.435394042715</v>
       </c>
       <c r="G34" t="n">
-        <v>165.6304170232079</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>70.88542329426762</v>
       </c>
       <c r="S34" t="n">
-        <v>182.8784344308282</v>
+        <v>182.7743669785568</v>
       </c>
       <c r="T34" t="n">
-        <v>217.8595503594825</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V34" t="n">
-        <v>1.8594658277338</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T35" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U35" t="n">
         <v>250.9088959876463</v>
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>83.5541093828386</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S37" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T37" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>89.0253921359038</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U38" t="n">
         <v>250.9088959876463</v>
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>95.66252631596572</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,10 +3667,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>124.1132480387692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5420528771669</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S40" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T40" t="n">
         <v>217.4819944627618</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G41" t="n">
         <v>409.8432760127576</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.56117515190873</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>84.56702400647679</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S43" t="n">
         <v>181.3384883584589</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,7 +4147,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>5.313812950991682</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
-        <v>75.75905456204174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1206.080506218543</v>
+        <v>1313.879478346266</v>
       </c>
       <c r="C2" t="n">
-        <v>837.1179892781315</v>
+        <v>944.9169614058544</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>586.651262799104</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>586.651262799104</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>175.6653580094964</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>161.7419539480873</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>161.7419539480873</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>1592.680346282665</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X2" t="n">
-        <v>1592.680346282665</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y2" t="n">
-        <v>1592.680346282665</v>
+        <v>1700.479318410388</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4419,19 +4419,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.9658229629848</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>210.9658229629848</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>210.9658229629848</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>210.9658229629848</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>64.07587546507446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>64.07587546507446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>210.9658229629848</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.9658229629848</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1914.44116270037</v>
+        <v>1472.812633166741</v>
       </c>
       <c r="C5" t="n">
-        <v>1550.100961840373</v>
+        <v>1472.812633166741</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>1114.546934559991</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>728.7586819617466</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>721.8131812125431</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>303.84937311073</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1914.44116270037</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>1914.44116270037</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="Y5" t="n">
-        <v>1914.44116270037</v>
+        <v>1859.412473230863</v>
       </c>
     </row>
     <row r="6">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>444.0275768541695</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>444.0275768541695</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>293.9109374418338</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>293.9109374418338</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>293.9109374418338</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>293.9109374418338</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541695</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541695</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="X7" t="n">
-        <v>444.0275768541695</v>
+        <v>62.57560470564027</v>
       </c>
       <c r="Y7" t="n">
-        <v>444.0275768541695</v>
+        <v>62.57560470564027</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1191.835263233623</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C8" t="n">
-        <v>1191.835263233623</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304456</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.336936304456</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2302.336936304456</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1968.574435273556</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1578.435103297744</v>
+        <v>1791.109440255352</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>365.6939024587813</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>365.6939024587813</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>365.6939024587813</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>217.7808088763882</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>217.7808088763882</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406186</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587813</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587813</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>365.6939024587813</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V10" t="n">
-        <v>365.6939024587813</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="W10" t="n">
-        <v>365.6939024587813</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="X10" t="n">
-        <v>365.6939024587813</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>365.6939024587813</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5024,40 +5024,40 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>1009.454103530278</v>
       </c>
       <c r="L11" t="n">
-        <v>1390.197710791128</v>
+        <v>1460.488316778687</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193957</v>
+        <v>2439.038619608516</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
         <v>4719.034655862919</v>
@@ -5072,13 +5072,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.955528730109</v>
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5139,7 +5139,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,7 +5148,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447819</v>
@@ -5157,13 +5157,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.0412991518391</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C13" t="n">
-        <v>760.1051162239322</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5212,7 +5212,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258582</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384226</v>
       </c>
       <c r="V13" t="n">
-        <v>1667.240599230347</v>
+        <v>909.2731541783393</v>
       </c>
       <c r="W13" t="n">
-        <v>1377.823429193387</v>
+        <v>619.8559841413787</v>
       </c>
       <c r="X13" t="n">
-        <v>1149.833878295369</v>
+        <v>619.8559841413787</v>
       </c>
       <c r="Y13" t="n">
-        <v>929.0412991518391</v>
+        <v>399.0634049978486</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176192</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1650.184003770974</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2628.734306600802</v>
+        <v>2016.310259422545</v>
       </c>
       <c r="N14" t="n">
-        <v>3175.513123659584</v>
+        <v>2996.062531649191</v>
       </c>
       <c r="O14" t="n">
-        <v>4055.477773989039</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5306,22 +5306,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.070220408989</v>
@@ -5355,13 +5355,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5370,10 +5370,10 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>584.5263537034831</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="C16" t="n">
-        <v>415.5901707755762</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="D16" t="n">
-        <v>415.5901707755763</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="E16" t="n">
-        <v>267.6770771931833</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>120.787129695273</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5437,7 +5437,7 @@
         <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5452,7 +5452,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q16" t="n">
         <v>1956.343466104703</v>
@@ -5461,25 +5461,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1866.513008862231</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1577.410141987874</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1322.725653781991</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W16" t="n">
-        <v>1033.308483745031</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X16" t="n">
-        <v>805.3189328470132</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y16" t="n">
-        <v>584.5263537034831</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5504,34 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1390.197710791128</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2368.748013620957</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N17" t="n">
-        <v>2915.526830679739</v>
+        <v>3484.372139114998</v>
       </c>
       <c r="O17" t="n">
-        <v>3795.491481009194</v>
+        <v>3987.344609994335</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L18" t="n">
         <v>794.200663232024</v>
@@ -5604,28 +5604,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>686.6979017231757</v>
+        <v>210.2179684131228</v>
       </c>
       <c r="C19" t="n">
-        <v>686.6979017231757</v>
+        <v>210.2179684131228</v>
       </c>
       <c r="D19" t="n">
-        <v>536.5812623108401</v>
+        <v>210.2179684131228</v>
       </c>
       <c r="E19" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
         <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1644.746393431757</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1451.592139109554</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1196.907650903667</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W19" t="n">
-        <v>907.4904808667059</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X19" t="n">
-        <v>907.4904808667059</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y19" t="n">
-        <v>686.6979017231757</v>
+        <v>391.8664332433625</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>291.9947530764207</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176194</v>
+        <v>625.814126766266</v>
       </c>
       <c r="L20" t="n">
-        <v>1650.184003770974</v>
+        <v>1076.848340014673</v>
       </c>
       <c r="M20" t="n">
-        <v>2593.249184644075</v>
+        <v>2055.398642844501</v>
       </c>
       <c r="N20" t="n">
-        <v>3573.001456870722</v>
+        <v>2602.177459903281</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232735</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.49719767968</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5814,43 +5814,43 @@
         <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193577</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232022</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454337</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.00003200879</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426851</v>
       </c>
       <c r="P21" t="n">
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>728.5987256350447</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C22" t="n">
-        <v>728.5987256350447</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D22" t="n">
-        <v>633.9069394924948</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E22" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.6836668953297</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442056</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927011</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892249</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598113</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518526</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952185</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104699</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862227</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689053</v>
       </c>
       <c r="T22" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258579</v>
       </c>
       <c r="U22" t="n">
-        <v>1385.724257814702</v>
+        <v>1163.957642384223</v>
       </c>
       <c r="V22" t="n">
-        <v>1131.039769608815</v>
+        <v>1163.957642384223</v>
       </c>
       <c r="W22" t="n">
-        <v>1131.039769608815</v>
+        <v>874.5404723472623</v>
       </c>
       <c r="X22" t="n">
-        <v>1131.039769608815</v>
+        <v>646.5509214492449</v>
       </c>
       <c r="Y22" t="n">
-        <v>910.2471904652845</v>
+        <v>425.7583423057148</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5990,25 +5990,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1530.944718129077</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M23" t="n">
-        <v>2064.476622801002</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N23" t="n">
-        <v>3044.228895027648</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906985</v>
+        <v>3931.363334276589</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.556453353931</v>
+        <v>4326.137700633767</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>561.5038042865474</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="C25" t="n">
-        <v>392.5676213586405</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="D25" t="n">
-        <v>242.4509819463048</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
         <v>95.56103444839442</v>
@@ -6148,19 +6148,19 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.670849844206</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N25" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1253.362018297278</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>963.9448482603173</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>963.9448482603173</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y25" t="n">
-        <v>743.1522691167871</v>
+        <v>399.0634049978502</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2328.482124425629</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C26" t="n">
-        <v>1959.519607485218</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D26" t="n">
-        <v>1601.253908878467</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E26" t="n">
-        <v>1215.465656280223</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F26" t="n">
-        <v>804.4797514906163</v>
+        <v>803.7890349610748</v>
       </c>
       <c r="G26" t="n">
-        <v>390.2976618760576</v>
+        <v>389.6203923141829</v>
       </c>
       <c r="H26" t="n">
-        <v>101.8324663696536</v>
+        <v>101.2929105653989</v>
       </c>
       <c r="I26" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J26" t="n">
-        <v>357.1047532886066</v>
+        <v>358.202194515378</v>
       </c>
       <c r="K26" t="n">
-        <v>801.9275083030689</v>
+        <v>804.7014151994158</v>
       </c>
       <c r="L26" t="n">
-        <v>1692.193343587753</v>
+        <v>1395.524942477763</v>
       </c>
       <c r="M26" t="n">
-        <v>2378.953612054109</v>
+        <v>2084.599393525237</v>
       </c>
       <c r="N26" t="n">
-        <v>3081.44018802884</v>
+        <v>3074.016219660737</v>
       </c>
       <c r="O26" t="n">
-        <v>3731.443080300297</v>
+        <v>3726.239688016505</v>
       </c>
       <c r="P26" t="n">
-        <v>4251.704509646627</v>
+        <v>4248.396327675951</v>
       </c>
       <c r="Q26" t="n">
-        <v>4594.226429670195</v>
+        <v>4592.3414717167</v>
       </c>
       <c r="R26" t="n">
-        <v>4708.059617230761</v>
+        <v>4707.002538067131</v>
       </c>
       <c r="S26" t="n">
-        <v>4618.058039573238</v>
+        <v>4617.307383185321</v>
       </c>
       <c r="T26" t="n">
-        <v>4415.977845223257</v>
+        <v>4415.286052936302</v>
       </c>
       <c r="U26" t="n">
-        <v>4162.518597340328</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V26" t="n">
-        <v>3831.455709996757</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W26" t="n">
-        <v>3478.687054726643</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X26" t="n">
-        <v>3105.221296465563</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y26" t="n">
-        <v>2715.081964489751</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>947.713822318087</v>
+        <v>947.3682853256665</v>
       </c>
       <c r="C27" t="n">
-        <v>773.26079303696</v>
+        <v>772.9152560445395</v>
       </c>
       <c r="D27" t="n">
-        <v>624.3263833757087</v>
+        <v>623.9808463832883</v>
       </c>
       <c r="E27" t="n">
-        <v>465.0889283702531</v>
+        <v>464.7433913778327</v>
       </c>
       <c r="F27" t="n">
-        <v>318.5543703971381</v>
+        <v>318.2088334047177</v>
       </c>
       <c r="G27" t="n">
-        <v>182.6676551170328</v>
+        <v>182.3293128866051</v>
       </c>
       <c r="H27" t="n">
-        <v>96.76663585044008</v>
+        <v>96.49777987399524</v>
       </c>
       <c r="I27" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J27" t="n">
-        <v>231.9507289421375</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="K27" t="n">
-        <v>545.6098185067156</v>
+        <v>350.4984421649859</v>
       </c>
       <c r="L27" t="n">
-        <v>797.5249272776945</v>
+        <v>820.1054282995472</v>
       </c>
       <c r="M27" t="n">
-        <v>797.5249272776945</v>
+        <v>820.1054282995472</v>
       </c>
       <c r="N27" t="n">
-        <v>1392.482134852963</v>
+        <v>1416.896635926572</v>
       </c>
       <c r="O27" t="n">
-        <v>1914.531950260446</v>
+        <v>1940.624203080419</v>
       </c>
       <c r="P27" t="n">
-        <v>2314.189885606398</v>
+        <v>2341.628682116035</v>
       </c>
       <c r="Q27" t="n">
-        <v>2531.431434984086</v>
+        <v>2559.770360290268</v>
       </c>
       <c r="R27" t="n">
-        <v>2560.279010110498</v>
+        <v>2559.770360290268</v>
       </c>
       <c r="S27" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T27" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U27" t="n">
-        <v>2020.930423268586</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V27" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044423</v>
       </c>
       <c r="W27" t="n">
-        <v>1531.540958308642</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X27" t="n">
-        <v>1323.689458103109</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1115.929159338155</v>
+        <v>1115.583622345735</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>870.0737040055038</v>
+        <v>408.9705711061349</v>
       </c>
       <c r="C28" t="n">
-        <v>701.1375210775969</v>
+        <v>240.034388178228</v>
       </c>
       <c r="D28" t="n">
-        <v>551.0208816652612</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="E28" t="n">
-        <v>551.0208816652612</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="F28" t="n">
-        <v>404.1309341673508</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="G28" t="n">
-        <v>236.827482628757</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="H28" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="I28" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J28" t="n">
-        <v>166.9584435603206</v>
+        <v>167.3552671573046</v>
       </c>
       <c r="K28" t="n">
-        <v>416.4235264532472</v>
+        <v>417.5071952352227</v>
       </c>
       <c r="L28" t="n">
-        <v>791.1793793371892</v>
+        <v>793.1419734834332</v>
       </c>
       <c r="M28" t="n">
-        <v>1196.696004649982</v>
+        <v>1199.585302358418</v>
       </c>
       <c r="N28" t="n">
-        <v>1598.004967408914</v>
+        <v>1601.798933740117</v>
       </c>
       <c r="O28" t="n">
-        <v>1952.662452740133</v>
+        <v>1957.29202696932</v>
       </c>
       <c r="P28" t="n">
-        <v>2232.612518185971</v>
+        <v>2237.95709932761</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.000352396752</v>
+        <v>2348.839967262879</v>
       </c>
       <c r="R28" t="n">
-        <v>2343.000352396752</v>
+        <v>2277.238529591902</v>
       </c>
       <c r="S28" t="n">
-        <v>2343.000352396752</v>
+        <v>2092.617956886289</v>
       </c>
       <c r="T28" t="n">
-        <v>2122.940200518487</v>
+        <v>1872.58357744421</v>
       </c>
       <c r="U28" t="n">
-        <v>1862.957492289899</v>
+        <v>1583.50282422077</v>
       </c>
       <c r="V28" t="n">
-        <v>1608.273004084012</v>
+        <v>1328.818336014883</v>
       </c>
       <c r="W28" t="n">
-        <v>1318.855834047051</v>
+        <v>1039.401165977922</v>
       </c>
       <c r="X28" t="n">
-        <v>1090.866283149034</v>
+        <v>811.4116150799048</v>
       </c>
       <c r="Y28" t="n">
-        <v>870.0737040055038</v>
+        <v>590.6190359363746</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2328.48212442563</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C29" t="n">
-        <v>1959.519607485219</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D29" t="n">
-        <v>1601.253908878468</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E29" t="n">
-        <v>1215.465656280224</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F29" t="n">
-        <v>804.4797514906168</v>
+        <v>803.7890349610748</v>
       </c>
       <c r="G29" t="n">
-        <v>390.2976618760576</v>
+        <v>389.6203923141829</v>
       </c>
       <c r="H29" t="n">
-        <v>101.832466369654</v>
+        <v>101.2929105653989</v>
       </c>
       <c r="I29" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J29" t="n">
-        <v>357.1047532886066</v>
+        <v>358.202194515378</v>
       </c>
       <c r="K29" t="n">
-        <v>801.9275083030689</v>
+        <v>804.7014151994158</v>
       </c>
       <c r="L29" t="n">
-        <v>1390.671231675073</v>
+        <v>1395.524942477763</v>
       </c>
       <c r="M29" t="n">
-        <v>2077.431500141429</v>
+        <v>2369.178015211323</v>
       </c>
       <c r="N29" t="n">
-        <v>2779.91807611616</v>
+        <v>3074.016219660737</v>
       </c>
       <c r="O29" t="n">
-        <v>3429.920968387617</v>
+        <v>3726.239688016505</v>
       </c>
       <c r="P29" t="n">
-        <v>4251.704509646627</v>
+        <v>4248.396327675951</v>
       </c>
       <c r="Q29" t="n">
-        <v>4594.226429670195</v>
+        <v>4592.3414717167</v>
       </c>
       <c r="R29" t="n">
-        <v>4708.059617230761</v>
+        <v>4707.002538067131</v>
       </c>
       <c r="S29" t="n">
-        <v>4618.058039573238</v>
+        <v>4617.307383185321</v>
       </c>
       <c r="T29" t="n">
-        <v>4415.977845223257</v>
+        <v>4415.286052936302</v>
       </c>
       <c r="U29" t="n">
-        <v>4162.518597340329</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V29" t="n">
-        <v>3831.455709996758</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W29" t="n">
-        <v>3478.687054726644</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X29" t="n">
-        <v>3105.221296465564</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y29" t="n">
-        <v>2715.081964489752</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>947.713822318087</v>
+        <v>947.3682853256665</v>
       </c>
       <c r="C30" t="n">
-        <v>773.26079303696</v>
+        <v>772.9152560445395</v>
       </c>
       <c r="D30" t="n">
-        <v>624.3263833757087</v>
+        <v>623.9808463832883</v>
       </c>
       <c r="E30" t="n">
-        <v>465.0889283702531</v>
+        <v>464.7433913778327</v>
       </c>
       <c r="F30" t="n">
-        <v>318.5543703971381</v>
+        <v>318.2088334047177</v>
       </c>
       <c r="G30" t="n">
-        <v>182.6676551170328</v>
+        <v>182.3293128866051</v>
       </c>
       <c r="H30" t="n">
-        <v>96.76663585044008</v>
+        <v>96.49777987399524</v>
       </c>
       <c r="I30" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J30" t="n">
-        <v>231.9507289421375</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="K30" t="n">
-        <v>545.6098185067156</v>
+        <v>408.9378168618745</v>
       </c>
       <c r="L30" t="n">
-        <v>545.6098185067156</v>
+        <v>408.9378168618745</v>
       </c>
       <c r="M30" t="n">
-        <v>797.5249272776945</v>
+        <v>976.3038879226091</v>
       </c>
       <c r="N30" t="n">
-        <v>1392.482134852963</v>
+        <v>1573.095095549634</v>
       </c>
       <c r="O30" t="n">
-        <v>1914.531950260446</v>
+        <v>2096.822662703481</v>
       </c>
       <c r="P30" t="n">
-        <v>2314.189885606398</v>
+        <v>2312.343290083222</v>
       </c>
       <c r="Q30" t="n">
-        <v>2531.431434984086</v>
+        <v>2530.484968257455</v>
       </c>
       <c r="R30" t="n">
-        <v>2560.279010110498</v>
+        <v>2559.770360290268</v>
       </c>
       <c r="S30" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T30" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U30" t="n">
-        <v>2020.930423268586</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V30" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044423</v>
       </c>
       <c r="W30" t="n">
-        <v>1531.540958308642</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X30" t="n">
-        <v>1323.689458103109</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1115.929159338155</v>
+        <v>1115.583622345735</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>694.6613257045826</v>
+        <v>408.9705711061346</v>
       </c>
       <c r="C31" t="n">
-        <v>525.7251427766757</v>
+        <v>242.0531443437358</v>
       </c>
       <c r="D31" t="n">
-        <v>525.7251427766757</v>
+        <v>242.0531443437358</v>
       </c>
       <c r="E31" t="n">
-        <v>377.8120491942826</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="F31" t="n">
-        <v>230.9221016963722</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="G31" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="H31" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="I31" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J31" t="n">
-        <v>166.9584435603206</v>
+        <v>167.3552671573046</v>
       </c>
       <c r="K31" t="n">
-        <v>416.4235264532474</v>
+        <v>417.5071952352234</v>
       </c>
       <c r="L31" t="n">
-        <v>791.1793793371894</v>
+        <v>793.1419734834338</v>
       </c>
       <c r="M31" t="n">
-        <v>1196.696004649982</v>
+        <v>1199.585302358418</v>
       </c>
       <c r="N31" t="n">
-        <v>1598.004967408914</v>
+        <v>1601.798933740117</v>
       </c>
       <c r="O31" t="n">
-        <v>1952.662452740133</v>
+        <v>1957.292026969321</v>
       </c>
       <c r="P31" t="n">
-        <v>2232.612518185972</v>
+        <v>2237.95709932761</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.000352396753</v>
+        <v>2348.839967262879</v>
       </c>
       <c r="R31" t="n">
-        <v>2343.000352396753</v>
+        <v>2277.238529591902</v>
       </c>
       <c r="S31" t="n">
-        <v>2158.274661052482</v>
+        <v>2092.617956886289</v>
       </c>
       <c r="T31" t="n">
-        <v>2158.274661052482</v>
+        <v>1872.58357744421</v>
       </c>
       <c r="U31" t="n">
-        <v>1869.193578819217</v>
+        <v>1583.50282422077</v>
       </c>
       <c r="V31" t="n">
-        <v>1614.50909061333</v>
+        <v>1328.818336014883</v>
       </c>
       <c r="W31" t="n">
-        <v>1325.09192057637</v>
+        <v>1039.401165977922</v>
       </c>
       <c r="X31" t="n">
-        <v>1097.102369678352</v>
+        <v>811.4116150799044</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.3097905348224</v>
+        <v>590.6190359363743</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2328.48212442563</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C32" t="n">
-        <v>1959.519607485219</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D32" t="n">
-        <v>1601.253908878468</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E32" t="n">
-        <v>1215.465656280224</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F32" t="n">
-        <v>804.4797514906168</v>
+        <v>803.7890349610748</v>
       </c>
       <c r="G32" t="n">
-        <v>390.2976618760574</v>
+        <v>389.6203923141829</v>
       </c>
       <c r="H32" t="n">
-        <v>101.8324663696535</v>
+        <v>101.2929105653989</v>
       </c>
       <c r="I32" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J32" t="n">
-        <v>357.1047532886066</v>
+        <v>525.6078435357308</v>
       </c>
       <c r="K32" t="n">
-        <v>801.9275083030689</v>
+        <v>972.1070642197683</v>
       </c>
       <c r="L32" t="n">
-        <v>1692.193343587753</v>
+        <v>1562.930591498116</v>
       </c>
       <c r="M32" t="n">
-        <v>2378.953612054109</v>
+        <v>2252.005042545589</v>
       </c>
       <c r="N32" t="n">
-        <v>3081.44018802884</v>
+        <v>2956.843246995003</v>
       </c>
       <c r="O32" t="n">
-        <v>3731.443080300297</v>
+        <v>3609.066715350771</v>
       </c>
       <c r="P32" t="n">
-        <v>4251.704509646627</v>
+        <v>4131.223355010217</v>
       </c>
       <c r="Q32" t="n">
-        <v>4594.226429670195</v>
+        <v>4527.282216042447</v>
       </c>
       <c r="R32" t="n">
-        <v>4708.059617230761</v>
+        <v>4707.002538067131</v>
       </c>
       <c r="S32" t="n">
-        <v>4618.058039573238</v>
+        <v>4617.307383185321</v>
       </c>
       <c r="T32" t="n">
-        <v>4415.977845223257</v>
+        <v>4415.286052936302</v>
       </c>
       <c r="U32" t="n">
-        <v>4162.518597340329</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V32" t="n">
-        <v>3831.455709996758</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W32" t="n">
-        <v>3478.687054726644</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X32" t="n">
-        <v>3105.221296465564</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y32" t="n">
-        <v>2715.081964489752</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>947.713822318087</v>
+        <v>947.3682853256665</v>
       </c>
       <c r="C33" t="n">
-        <v>773.26079303696</v>
+        <v>772.9152560445395</v>
       </c>
       <c r="D33" t="n">
-        <v>624.3263833757087</v>
+        <v>623.9808463832883</v>
       </c>
       <c r="E33" t="n">
-        <v>465.0889283702531</v>
+        <v>464.7433913778327</v>
       </c>
       <c r="F33" t="n">
-        <v>318.5543703971381</v>
+        <v>318.2088334047177</v>
       </c>
       <c r="G33" t="n">
-        <v>182.6676551170328</v>
+        <v>182.3293128866052</v>
       </c>
       <c r="H33" t="n">
-        <v>96.76663585044008</v>
+        <v>96.49777987399527</v>
       </c>
       <c r="I33" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J33" t="n">
-        <v>94.16119234461522</v>
+        <v>232.5958076174676</v>
       </c>
       <c r="K33" t="n">
-        <v>407.8202819091933</v>
+        <v>547.3935737179993</v>
       </c>
       <c r="L33" t="n">
-        <v>449.1871167194545</v>
+        <v>624.4584442416165</v>
       </c>
       <c r="M33" t="n">
-        <v>1014.766476655382</v>
+        <v>1191.824515302351</v>
       </c>
       <c r="N33" t="n">
-        <v>1609.72368423065</v>
+        <v>1788.615722929376</v>
       </c>
       <c r="O33" t="n">
-        <v>2131.773499638133</v>
+        <v>2312.343290083222</v>
       </c>
       <c r="P33" t="n">
-        <v>2531.431434984086</v>
+        <v>2312.343290083222</v>
       </c>
       <c r="Q33" t="n">
-        <v>2531.431434984086</v>
+        <v>2530.484968257455</v>
       </c>
       <c r="R33" t="n">
-        <v>2560.279010110498</v>
+        <v>2559.770360290268</v>
       </c>
       <c r="S33" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T33" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U33" t="n">
-        <v>2020.930423268586</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V33" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044423</v>
       </c>
       <c r="W33" t="n">
-        <v>1531.540958308642</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X33" t="n">
-        <v>1323.689458103109</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1115.929159338155</v>
+        <v>1115.583622345735</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>727.4074137213621</v>
+        <v>408.9705711061334</v>
       </c>
       <c r="C34" t="n">
-        <v>558.4712307934552</v>
+        <v>240.0343881782265</v>
       </c>
       <c r="D34" t="n">
-        <v>408.3545913811195</v>
+        <v>240.0343881782265</v>
       </c>
       <c r="E34" t="n">
-        <v>408.3545913811195</v>
+        <v>240.0343881782265</v>
       </c>
       <c r="F34" t="n">
-        <v>261.4646438832091</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="G34" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="H34" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="I34" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J34" t="n">
-        <v>166.9584435603206</v>
+        <v>167.3552671573046</v>
       </c>
       <c r="K34" t="n">
-        <v>416.4235264532472</v>
+        <v>417.5071952352226</v>
       </c>
       <c r="L34" t="n">
-        <v>791.1793793371892</v>
+        <v>793.1419734834329</v>
       </c>
       <c r="M34" t="n">
-        <v>1196.696004649983</v>
+        <v>1199.585302358417</v>
       </c>
       <c r="N34" t="n">
-        <v>1598.004967408915</v>
+        <v>1601.798933740116</v>
       </c>
       <c r="O34" t="n">
-        <v>1952.662452740133</v>
+        <v>1957.29202696932</v>
       </c>
       <c r="P34" t="n">
-        <v>2232.612518185972</v>
+        <v>2237.957099327609</v>
       </c>
       <c r="Q34" t="n">
-        <v>2343.000352396753</v>
+        <v>2348.839967262878</v>
       </c>
       <c r="R34" t="n">
-        <v>2343.000352396753</v>
+        <v>2277.238529591901</v>
       </c>
       <c r="S34" t="n">
-        <v>2158.274661052482</v>
+        <v>2092.617956886288</v>
       </c>
       <c r="T34" t="n">
-        <v>1938.214509174217</v>
+        <v>1872.583577444209</v>
       </c>
       <c r="U34" t="n">
-        <v>1649.133426940952</v>
+        <v>1583.502824220768</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.25517863011</v>
+        <v>1328.818336014881</v>
       </c>
       <c r="W34" t="n">
-        <v>1357.838008593149</v>
+        <v>1039.401165977921</v>
       </c>
       <c r="X34" t="n">
-        <v>1129.848457695132</v>
+        <v>811.4116150799033</v>
       </c>
       <c r="Y34" t="n">
-        <v>909.0558785516018</v>
+        <v>590.6190359363732</v>
       </c>
     </row>
     <row r="35">
@@ -6923,46 +6923,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963563</v>
+        <v>794.2588208963557</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127626</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.8483481516068</v>
       </c>
       <c r="I35" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015126</v>
       </c>
       <c r="K35" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287891952</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294971</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234009</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R35" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T35" t="n">
         <v>4405.740996026519</v>
@@ -7011,31 +7011,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>242.5353624779756</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K36" t="n">
-        <v>573.0441050413344</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="L36" t="n">
-        <v>1063.776437885086</v>
+        <v>732.2286627472052</v>
       </c>
       <c r="M36" t="n">
-        <v>1655.794792137213</v>
+        <v>1324.247016999334</v>
       </c>
       <c r="N36" t="n">
-        <v>1776.374605710325</v>
+        <v>1946.342980398671</v>
       </c>
       <c r="O36" t="n">
-        <v>2323.251080710519</v>
+        <v>2493.219455398866</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.251080710519</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.791123359144</v>
+        <v>495.0957149476026</v>
       </c>
       <c r="C37" t="n">
-        <v>847.854940431237</v>
+        <v>326.1595320196957</v>
       </c>
       <c r="D37" t="n">
-        <v>697.7383010189012</v>
+        <v>241.7614417340001</v>
       </c>
       <c r="E37" t="n">
-        <v>549.8252074365081</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="F37" t="n">
-        <v>402.9352599385977</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G37" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H37" t="n">
         <v>93.84834815160703</v>
@@ -7093,52 +7093,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948596</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931026</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946056</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335696</v>
       </c>
       <c r="R37" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294198</v>
       </c>
       <c r="S37" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033128</v>
       </c>
       <c r="T37" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.70418174751</v>
       </c>
       <c r="U37" t="n">
-        <v>1936.638888267892</v>
+        <v>1669.627968062237</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.638888267892</v>
+        <v>1414.94347985635</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.221718230931</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.232167332914</v>
+        <v>897.5367589213724</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.439588189384</v>
+        <v>676.7441797778423</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7160,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963563</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127626</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.8483481516068</v>
       </c>
       <c r="I38" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015126</v>
       </c>
       <c r="K38" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287891952</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294971</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234009</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O38" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P38" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q38" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R38" t="n">
         <v>4692.417407580351</v>
@@ -7248,28 +7248,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>94.88738072612962</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="J39" t="n">
-        <v>242.5353624779756</v>
+        <v>242.535362477976</v>
       </c>
       <c r="K39" t="n">
-        <v>573.0441050413344</v>
+        <v>573.0441050413352</v>
       </c>
       <c r="L39" t="n">
-        <v>1063.776437885086</v>
+        <v>729.4465287982083</v>
       </c>
       <c r="M39" t="n">
-        <v>1655.794792137213</v>
+        <v>1321.464883050337</v>
       </c>
       <c r="N39" t="n">
-        <v>1741.048401476415</v>
+        <v>1321.464883050337</v>
       </c>
       <c r="O39" t="n">
-        <v>2287.924876476609</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="P39" t="n">
-        <v>2287.924876476609</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q39" t="n">
         <v>2518.486150461856</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>852.3722300260592</v>
+        <v>580.1153653172707</v>
       </c>
       <c r="C40" t="n">
-        <v>683.4360470981524</v>
+        <v>411.1791823893639</v>
       </c>
       <c r="D40" t="n">
-        <v>533.3194076858166</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9524904749385</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F40" t="n">
         <v>261.0625429770282</v>
@@ -7330,52 +7330,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117248</v>
+        <v>432.459198011725</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948596</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946056</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R40" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S40" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T40" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U40" t="n">
-        <v>1737.487313103733</v>
+        <v>1669.627968062237</v>
       </c>
       <c r="V40" t="n">
-        <v>1482.802824897846</v>
+        <v>1414.94347985635</v>
       </c>
       <c r="W40" t="n">
-        <v>1482.802824897846</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X40" t="n">
-        <v>1254.813273999829</v>
+        <v>897.5367589213723</v>
       </c>
       <c r="Y40" t="n">
-        <v>1034.020694856299</v>
+        <v>676.7441797778422</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
         <v>1949.298676890958</v>
@@ -7394,10 +7394,10 @@
         <v>1591.032978284208</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G41" t="n">
         <v>380.2757138127629</v>
@@ -7418,16 +7418,16 @@
         <v>1462.494387944179</v>
       </c>
       <c r="M41" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883218</v>
       </c>
       <c r="N41" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q41" t="n">
         <v>4566.333620403612</v>
@@ -7442,19 +7442,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>94.88738072612972</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>242.535362477976</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K42" t="n">
-        <v>573.0441050413352</v>
+        <v>424.3570907149663</v>
       </c>
       <c r="L42" t="n">
-        <v>1063.776437885087</v>
+        <v>915.0894235587183</v>
       </c>
       <c r="M42" t="n">
-        <v>1063.776437885087</v>
+        <v>1507.107777810847</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.872401284424</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="O42" t="n">
         <v>1868.341358050532</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>930.48582603165</v>
+        <v>495.0957149476029</v>
       </c>
       <c r="C43" t="n">
-        <v>930.48582603165</v>
+        <v>326.159532019696</v>
       </c>
       <c r="D43" t="n">
-        <v>780.3691866193143</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="E43" t="n">
-        <v>632.4560930369212</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F43" t="n">
-        <v>485.5661455390108</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G43" t="n">
-        <v>318.3519507135896</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H43" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I43" t="n">
         <v>93.84834815160703</v>
@@ -7570,19 +7570,19 @@
         <v>172.8304710411611</v>
       </c>
       <c r="K43" t="n">
-        <v>432.459198011725</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L43" t="n">
         <v>820.2210160948596</v>
       </c>
       <c r="M43" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.45060813932</v>
       </c>
       <c r="N43" t="n">
         <v>1654.146473931027</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946056</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P43" t="n">
         <v>2311.699365782261</v>
@@ -7591,28 +7591,28 @@
         <v>2429.412499335697</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S43" t="n">
-        <v>2246.242309074627</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T43" t="n">
-        <v>2026.563526789009</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U43" t="n">
-        <v>1737.487313103736</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V43" t="n">
-        <v>1482.802824897849</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W43" t="n">
-        <v>1193.385654860888</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X43" t="n">
-        <v>965.3961039628709</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y43" t="n">
-        <v>965.3961039628709</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.807711655511</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715099</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108349</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510105</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.805338720497</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399044</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
+        <v>93.84834815160706</v>
+      </c>
+      <c r="I44" t="n">
         <v>93.84834815160703</v>
       </c>
-      <c r="I44" t="n">
-        <v>95.37264148556113</v>
-      </c>
       <c r="J44" t="n">
-        <v>378.2242654148067</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112157</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436023</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118415</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459573</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171645</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798342</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.297413955891</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596214</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.28428657842</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570209</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226638</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956524</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695444</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814818</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003549</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391036</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.805904433648</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.271346460533</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064408</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>95.61573535637419</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2623778840289</v>
+        <v>242.535362477976</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1871500552495</v>
+        <v>242.535362477976</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.512756271008</v>
+        <v>733.267695321728</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.89124389756</v>
+        <v>734.6951238849103</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.568508341346</v>
+        <v>1356.791087284247</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.568508341346</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.191657836414</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.453318211297</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372037</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166504</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.9003108572731</v>
+        <v>562.9550599891011</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9641279293662</v>
+        <v>394.0188770611942</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8474885170306</v>
+        <v>394.0188770611942</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9343949346375</v>
+        <v>246.1057834788012</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0444474367271</v>
+        <v>99.21583598089092</v>
       </c>
       <c r="G46" t="n">
         <v>93.84834815160703</v>
@@ -7804,52 +7804,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819309</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074694</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834095</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014444</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674453</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383438</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956996</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683896</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.949064936298</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.949064936298</v>
+        <v>2246.242309074627</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.347599959239</v>
+        <v>2026.563526789009</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.272373303437</v>
+        <v>1737.487313103736</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.748075766021</v>
+        <v>1482.802824897849</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.33090572906</v>
+        <v>1193.385654860888</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.341354831043</v>
+        <v>965.3961039628709</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.548775687513</v>
+        <v>744.6035248193408</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050815</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>226.0494095077361</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>295.4822118493983</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,22 +8933,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>195.2514630883936</v>
       </c>
       <c r="P14" t="n">
-        <v>20.70318561719154</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>5.284192235662204</v>
+        <v>23.80814351663651</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>7.630896635355185</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>413.669975960784</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,28 +9638,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>297.2174916798472</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>80.35488666587528</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,13 +9878,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>304.5677898107876</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>287.4531532182688</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>287.4531532182687</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>304.567789810788</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>304.5677898107876</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10367,10 +10367,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>52.6401181732133</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>51.31264782908289</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>51.31264782908289</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>51.31264782908249</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>51.31264782908283</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>51.31264782908283</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>46.61145443660556</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>93.35266590327936</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>71.67627119164611</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>141.0519739646185</v>
+        <v>166.0258082590289</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>32.92359802148816</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>94.9891264266309</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>166.6174291483871</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>54.87060473708777</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983822</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,19 +24178,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>25.79859598454527</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>61.9467974762585</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>4.180078975495902</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I28" t="n">
-        <v>84.46192760898779</v>
+        <v>84.28234746704</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>71.15392492125483</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>182.8784344308282</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>28.80739026462958</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1.998568603852988</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>30.23711676496924</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H31" t="n">
-        <v>141.2396273813004</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I31" t="n">
-        <v>84.46192760898779</v>
+        <v>84.28234746704</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>71.15392492125483</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.8595503594825</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.985653980216199</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H34" t="n">
-        <v>141.2396273813004</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I34" t="n">
-        <v>84.46192760898779</v>
+        <v>84.28234746704003</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>71.15392492125483</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>250.2781774960942</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>65.06136363537375</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,10 +25366,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>197.1600594125166</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>84.16945386597158</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,10 +25555,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>22.32071460779996</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>145.2708050300286</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>64.04844901173557</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>160.2282399261752</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>176.3785887617863</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1014007.420795879</v>
+        <v>1013962.189979581</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1014007.420795879</v>
+        <v>1013962.189979581</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1014007.420795879</v>
+        <v>1013962.189979581</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1013202.857367594</v>
+        <v>1013338.114337545</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>410520.8849321416</v>
+      </c>
+      <c r="C2" t="n">
         <v>410520.8849321415</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>410520.8849321416</v>
       </c>
-      <c r="D2" t="n">
-        <v>410520.8849321417</v>
-      </c>
       <c r="E2" t="n">
-        <v>397081.7868869831</v>
+        <v>397081.786886983</v>
       </c>
       <c r="F2" t="n">
         <v>397081.7868869831</v>
       </c>
       <c r="G2" t="n">
-        <v>397081.7868869832</v>
+        <v>397081.7868869831</v>
       </c>
       <c r="H2" t="n">
-        <v>397081.7868869829</v>
+        <v>397081.7868869831</v>
       </c>
       <c r="I2" t="n">
-        <v>397081.786886983</v>
+        <v>397081.7868869831</v>
       </c>
       <c r="J2" t="n">
-        <v>402198.0734914913</v>
+        <v>402275.3439200658</v>
       </c>
       <c r="K2" t="n">
-        <v>402198.0734914913</v>
+        <v>402275.3439200657</v>
       </c>
       <c r="L2" t="n">
-        <v>402198.0734914913</v>
+        <v>402275.3439200654</v>
       </c>
       <c r="M2" t="n">
-        <v>403341.4885592793</v>
+        <v>403341.4885592796</v>
       </c>
       <c r="N2" t="n">
-        <v>403341.4885592794</v>
+        <v>403341.4885592796</v>
       </c>
       <c r="O2" t="n">
-        <v>403341.4885592797</v>
+        <v>403341.4885592796</v>
       </c>
       <c r="P2" t="n">
-        <v>403573.2998450032</v>
+        <v>403341.4885592796</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-7.434948235944214e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-09</v>
       </c>
       <c r="J3" t="n">
-        <v>334053.3250733743</v>
+        <v>336433.9864356428</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>163129.4787408581</v>
+        <v>160866.4619420267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>9.240775398211554e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574951724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26430,34 +26430,34 @@
         <v>25090.72367499383</v>
       </c>
       <c r="G4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25090.72367499396</v>
+      </c>
+      <c r="I4" t="n">
         <v>25090.72367499381</v>
       </c>
-      <c r="H4" t="n">
-        <v>25090.72367499382</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25090.72367499382</v>
-      </c>
       <c r="J4" t="n">
-        <v>9308.90653674961</v>
+        <v>9070.556508370593</v>
       </c>
       <c r="K4" t="n">
-        <v>9308.906536749615</v>
+        <v>9070.556508370591</v>
       </c>
       <c r="L4" t="n">
-        <v>9308.906536749611</v>
+        <v>9070.556508370593</v>
       </c>
       <c r="M4" t="n">
-        <v>5781.971894855098</v>
+        <v>5781.971894855003</v>
       </c>
       <c r="N4" t="n">
-        <v>5781.971894855089</v>
+        <v>5781.971894855003</v>
       </c>
       <c r="O4" t="n">
-        <v>5781.971894854997</v>
+        <v>5781.971894854962</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670437</v>
+        <v>5781.971894855002</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26485,31 +26485,31 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371361</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>100099.5588493308</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="K5" t="n">
-        <v>100099.5588493308</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="L5" t="n">
-        <v>100099.5588493308</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="M5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="N5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="O5" t="n">
         <v>100930.0394572386</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100930.0394572386</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-463370.5782735439</v>
+        <v>-463370.578273544</v>
       </c>
       <c r="C6" t="n">
+        <v>126597.3009410005</v>
+      </c>
+      <c r="D6" t="n">
         <v>126597.3009410006</v>
       </c>
-      <c r="D6" t="n">
-        <v>126597.3009410007</v>
-      </c>
       <c r="E6" t="n">
-        <v>-451769.869035131</v>
+        <v>-451837.064525357</v>
       </c>
       <c r="F6" t="n">
-        <v>275607.5449582759</v>
+        <v>275540.3494680498</v>
       </c>
       <c r="G6" t="n">
-        <v>275607.5449582756</v>
+        <v>275540.3494680497</v>
       </c>
       <c r="H6" t="n">
-        <v>275607.5449582755</v>
+        <v>275540.3494680515</v>
       </c>
       <c r="I6" t="n">
-        <v>275607.5449582755</v>
+        <v>275540.3494680481</v>
       </c>
       <c r="J6" t="n">
-        <v>-41263.71696796341</v>
+        <v>-43426.10832352872</v>
       </c>
       <c r="K6" t="n">
-        <v>292789.6081054108</v>
+        <v>293007.878112114</v>
       </c>
       <c r="L6" t="n">
-        <v>292789.6081054109</v>
+        <v>293007.8781121141</v>
       </c>
       <c r="M6" t="n">
-        <v>133499.9984663276</v>
+        <v>135727.1182832951</v>
       </c>
       <c r="N6" t="n">
-        <v>296629.4772071857</v>
+        <v>296593.5802253218</v>
       </c>
       <c r="O6" t="n">
-        <v>296629.4772071852</v>
+        <v>296593.5802253218</v>
       </c>
       <c r="P6" t="n">
-        <v>290746.9641657113</v>
+        <v>296593.5802253218</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26753,31 +26753,31 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593296</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1309.039113184552</v>
+        <v>1312.350597059648</v>
       </c>
       <c r="K3" t="n">
-        <v>1309.039113184552</v>
+        <v>1312.350597059648</v>
       </c>
       <c r="L3" t="n">
-        <v>1309.039113184552</v>
+        <v>1312.350597059647</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="O3" t="n">
         <v>1358.041048716387</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716387</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26811,13 +26811,13 @@
         <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="K4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="L4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="M4" t="n">
         <v>1173.104351895088</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,31 +26975,31 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-7.773598540097152e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="J3" t="n">
-        <v>219.2624125912541</v>
+        <v>222.5738964663494</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="M3" t="n">
-        <v>49.0019355318334</v>
+        <v>45.69045165673992</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625286556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>656.7892464573156</v>
+        <v>656.5249766664083</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>516.3151054377722</v>
+        <v>516.5793752286796</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>45.21033383841562</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>280.1357731490764</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>146.1393241335322</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>232.047442317557</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>4.57609291961063</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>76.51544538689529</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>171.2856835255142</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>53.56823456887876</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>39.30622465787826</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>87.88390046306381</v>
       </c>
     </row>
     <row r="9">
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>140.0759752659257</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>169.2138872808328</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.978986488919777e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-6.563638521583925e-13</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -29478,7 +29478,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>5.826450433232822e-13</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -29694,7 +29694,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-13</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681588</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844658</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974796</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953981</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003798</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623179</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574979</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095008</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099044</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.99498197464</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.099994678168</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563563</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806931</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451116</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.350480948934527</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502561</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798527</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752241</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026433</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353149</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138785</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233463</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837912</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970317</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002918</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987481</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905538</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238307</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898478</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462212</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430534</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311876</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742007</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297387</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702019</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098814</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316426</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883109</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085995</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802164</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895877</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712197</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553029</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112278</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780292</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.262468796721815</v>
+        <v>5.275781294712147</v>
       </c>
       <c r="H26" t="n">
-        <v>53.8942585644273</v>
+        <v>54.0305951844708</v>
       </c>
       <c r="I26" t="n">
-        <v>202.881328285618</v>
+        <v>203.3945583643903</v>
       </c>
       <c r="J26" t="n">
-        <v>446.6454610357686</v>
+        <v>447.7753426620756</v>
       </c>
       <c r="K26" t="n">
-        <v>669.4057652010031</v>
+        <v>671.0991648672409</v>
       </c>
       <c r="L26" t="n">
-        <v>830.4570446386786</v>
+        <v>832.557856665288</v>
       </c>
       <c r="M26" t="n">
-        <v>924.0434741023801</v>
+        <v>926.3810322651251</v>
       </c>
       <c r="N26" t="n">
-        <v>938.995463571066</v>
+        <v>941.3708458687261</v>
       </c>
       <c r="O26" t="n">
-        <v>886.6667894736634</v>
+        <v>888.9097956194321</v>
       </c>
       <c r="P26" t="n">
-        <v>756.7495910545935</v>
+        <v>758.6639449062258</v>
       </c>
       <c r="Q26" t="n">
-        <v>568.2874272719932</v>
+        <v>569.7250272893468</v>
       </c>
       <c r="R26" t="n">
-        <v>330.568555552077</v>
+        <v>331.4047967539622</v>
       </c>
       <c r="S26" t="n">
-        <v>119.9185077052985</v>
+        <v>120.2218662532532</v>
       </c>
       <c r="T26" t="n">
-        <v>23.03645715764976</v>
+        <v>23.09473261760244</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4209975037377451</v>
+        <v>0.4220625035769717</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.815669035906396</v>
+        <v>2.822791850279242</v>
       </c>
       <c r="H27" t="n">
-        <v>27.19343516256967</v>
+        <v>27.26222655401269</v>
       </c>
       <c r="I27" t="n">
-        <v>96.94299092923337</v>
+        <v>97.18822817847392</v>
       </c>
       <c r="J27" t="n">
-        <v>266.018976765174</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>454.6688021709026</v>
+        <v>396.7893090790492</v>
       </c>
       <c r="L27" t="n">
-        <v>393.0140856091458</v>
+        <v>612.9048708248855</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>732.3085884219885</v>
+        <v>734.161113726793</v>
       </c>
       <c r="O27" t="n">
-        <v>669.9192903105888</v>
+        <v>671.6139890442897</v>
       </c>
       <c r="P27" t="n">
-        <v>537.6692916021608</v>
+        <v>539.0294367432354</v>
       </c>
       <c r="Q27" t="n">
-        <v>359.4176825483323</v>
+        <v>360.3269035549433</v>
       </c>
       <c r="R27" t="n">
-        <v>174.8184687381182</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>52.29981739940166</v>
+        <v>52.4321205523359</v>
       </c>
       <c r="T27" t="n">
-        <v>11.34912212279814</v>
+        <v>11.37783206318694</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1852413839412103</v>
+        <v>0.1857099901499502</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.360562335250832</v>
+        <v>2.366533863550184</v>
       </c>
       <c r="H28" t="n">
-        <v>20.98754512613923</v>
+        <v>21.04063744138256</v>
       </c>
       <c r="I28" t="n">
-        <v>70.98854731827049</v>
+        <v>71.16812746021829</v>
       </c>
       <c r="J28" t="n">
-        <v>166.8917571022338</v>
+        <v>167.313944152998</v>
       </c>
       <c r="K28" t="n">
-        <v>274.2544240409603</v>
+        <v>274.9482070561032</v>
       </c>
       <c r="L28" t="n">
-        <v>350.9512402790192</v>
+        <v>351.8390436772702</v>
       </c>
       <c r="M28" t="n">
-        <v>370.0288758793645</v>
+        <v>370.9649400835984</v>
       </c>
       <c r="N28" t="n">
-        <v>361.2304162661571</v>
+        <v>362.1442229558207</v>
       </c>
       <c r="O28" t="n">
-        <v>333.6547562589087</v>
+        <v>334.4988046407116</v>
       </c>
       <c r="P28" t="n">
-        <v>285.4992846197914</v>
+        <v>286.2215138242876</v>
       </c>
       <c r="Q28" t="n">
-        <v>197.6649060908674</v>
+        <v>198.1649401560068</v>
       </c>
       <c r="R28" t="n">
-        <v>106.1394664559147</v>
+        <v>106.4079680829019</v>
       </c>
       <c r="S28" t="n">
-        <v>41.13816360614403</v>
+        <v>41.24223105841547</v>
       </c>
       <c r="T28" t="n">
-        <v>10.08603906879901</v>
+        <v>10.11155378062351</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1287579455591364</v>
+        <v>0.1290836652845556</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.262468796721815</v>
+        <v>5.275781294712147</v>
       </c>
       <c r="H29" t="n">
-        <v>53.8942585644273</v>
+        <v>54.0305951844708</v>
       </c>
       <c r="I29" t="n">
-        <v>202.881328285618</v>
+        <v>203.3945583643903</v>
       </c>
       <c r="J29" t="n">
-        <v>446.6454610357686</v>
+        <v>447.7753426620756</v>
       </c>
       <c r="K29" t="n">
-        <v>669.4057652010031</v>
+        <v>671.0991648672409</v>
       </c>
       <c r="L29" t="n">
-        <v>830.4570446386786</v>
+        <v>832.557856665288</v>
       </c>
       <c r="M29" t="n">
-        <v>924.0434741023801</v>
+        <v>926.3810322651251</v>
       </c>
       <c r="N29" t="n">
-        <v>938.995463571066</v>
+        <v>941.3708458687261</v>
       </c>
       <c r="O29" t="n">
-        <v>886.6667894736634</v>
+        <v>888.9097956194321</v>
       </c>
       <c r="P29" t="n">
-        <v>756.7495910545935</v>
+        <v>758.6639449062258</v>
       </c>
       <c r="Q29" t="n">
-        <v>568.2874272719932</v>
+        <v>569.7250272893468</v>
       </c>
       <c r="R29" t="n">
-        <v>330.568555552077</v>
+        <v>331.4047967539622</v>
       </c>
       <c r="S29" t="n">
-        <v>119.9185077052985</v>
+        <v>120.2218662532532</v>
       </c>
       <c r="T29" t="n">
-        <v>23.03645715764976</v>
+        <v>23.09473261760244</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4209975037377451</v>
+        <v>0.4220625035769717</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.815669035906396</v>
+        <v>2.822791850279242</v>
       </c>
       <c r="H30" t="n">
-        <v>27.19343516256967</v>
+        <v>27.26222655401269</v>
       </c>
       <c r="I30" t="n">
-        <v>96.94299092923337</v>
+        <v>97.18822817847392</v>
       </c>
       <c r="J30" t="n">
-        <v>266.018976765174</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>454.6688021709026</v>
+        <v>455.8189804900477</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>396.5937397512899</v>
+        <v>715.2310753975079</v>
       </c>
       <c r="N30" t="n">
-        <v>732.3085884219885</v>
+        <v>734.161113726793</v>
       </c>
       <c r="O30" t="n">
-        <v>669.9192903105888</v>
+        <v>671.6139890442897</v>
       </c>
       <c r="P30" t="n">
-        <v>537.6692916021608</v>
+        <v>351.6720108282097</v>
       </c>
       <c r="Q30" t="n">
-        <v>359.4176825483323</v>
+        <v>360.3269035549433</v>
       </c>
       <c r="R30" t="n">
-        <v>174.8184687381182</v>
+        <v>175.260708037513</v>
       </c>
       <c r="S30" t="n">
-        <v>52.29981739940166</v>
+        <v>52.4321205523359</v>
       </c>
       <c r="T30" t="n">
-        <v>11.34912212279814</v>
+        <v>11.37783206318694</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1852413839412103</v>
+        <v>0.1857099901499502</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.360562335250832</v>
+        <v>2.366533863550184</v>
       </c>
       <c r="H31" t="n">
-        <v>20.98754512613923</v>
+        <v>21.04063744138256</v>
       </c>
       <c r="I31" t="n">
-        <v>70.98854731827049</v>
+        <v>71.16812746021829</v>
       </c>
       <c r="J31" t="n">
-        <v>166.8917571022338</v>
+        <v>167.313944152998</v>
       </c>
       <c r="K31" t="n">
-        <v>274.2544240409603</v>
+        <v>274.9482070561032</v>
       </c>
       <c r="L31" t="n">
-        <v>350.9512402790192</v>
+        <v>351.8390436772702</v>
       </c>
       <c r="M31" t="n">
-        <v>370.0288758793645</v>
+        <v>370.9649400835984</v>
       </c>
       <c r="N31" t="n">
-        <v>361.2304162661571</v>
+        <v>362.1442229558207</v>
       </c>
       <c r="O31" t="n">
-        <v>333.6547562589087</v>
+        <v>334.4988046407116</v>
       </c>
       <c r="P31" t="n">
-        <v>285.4992846197914</v>
+        <v>286.2215138242876</v>
       </c>
       <c r="Q31" t="n">
-        <v>197.6649060908674</v>
+        <v>198.1649401560068</v>
       </c>
       <c r="R31" t="n">
-        <v>106.1394664559147</v>
+        <v>106.4079680829019</v>
       </c>
       <c r="S31" t="n">
-        <v>41.13816360614403</v>
+        <v>41.24223105841547</v>
       </c>
       <c r="T31" t="n">
-        <v>10.08603906879901</v>
+        <v>10.11155378062351</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1287579455591364</v>
+        <v>0.1290836652845556</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.262468796721815</v>
+        <v>5.275781294712146</v>
       </c>
       <c r="H32" t="n">
-        <v>53.8942585644273</v>
+        <v>54.03059518447078</v>
       </c>
       <c r="I32" t="n">
-        <v>202.881328285618</v>
+        <v>203.3945583643902</v>
       </c>
       <c r="J32" t="n">
-        <v>446.6454610357686</v>
+        <v>447.7753426620754</v>
       </c>
       <c r="K32" t="n">
-        <v>669.4057652010031</v>
+        <v>671.0991648672407</v>
       </c>
       <c r="L32" t="n">
-        <v>830.4570446386786</v>
+        <v>832.5578566652877</v>
       </c>
       <c r="M32" t="n">
-        <v>924.0434741023801</v>
+        <v>926.3810322651248</v>
       </c>
       <c r="N32" t="n">
-        <v>938.995463571066</v>
+        <v>941.3708458687257</v>
       </c>
       <c r="O32" t="n">
-        <v>886.6667894736634</v>
+        <v>888.9097956194317</v>
       </c>
       <c r="P32" t="n">
-        <v>756.7495910545935</v>
+        <v>758.6639449062255</v>
       </c>
       <c r="Q32" t="n">
-        <v>568.2874272719932</v>
+        <v>569.7250272893466</v>
       </c>
       <c r="R32" t="n">
-        <v>330.568555552077</v>
+        <v>331.4047967539621</v>
       </c>
       <c r="S32" t="n">
-        <v>119.9185077052985</v>
+        <v>120.2218662532531</v>
       </c>
       <c r="T32" t="n">
-        <v>23.03645715764976</v>
+        <v>23.09473261760243</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4209975037377451</v>
+        <v>0.4220625035769716</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.815669035906396</v>
+        <v>2.822791850279241</v>
       </c>
       <c r="H33" t="n">
-        <v>27.19343516256967</v>
+        <v>27.26222655401268</v>
       </c>
       <c r="I33" t="n">
-        <v>96.94299092923337</v>
+        <v>97.18822817847389</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>266.6919265213384</v>
       </c>
       <c r="K33" t="n">
-        <v>454.6688021709026</v>
+        <v>455.8189804900475</v>
       </c>
       <c r="L33" t="n">
-        <v>180.3390614064006</v>
+        <v>216.3976833390834</v>
       </c>
       <c r="M33" t="n">
-        <v>713.426316685581</v>
+        <v>715.2310753975077</v>
       </c>
       <c r="N33" t="n">
-        <v>732.3085884219885</v>
+        <v>734.1611137267927</v>
       </c>
       <c r="O33" t="n">
-        <v>669.9192903105888</v>
+        <v>671.6139890442895</v>
       </c>
       <c r="P33" t="n">
-        <v>537.6692916021608</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>360.3269035549432</v>
       </c>
       <c r="R33" t="n">
-        <v>174.8184687381182</v>
+        <v>175.260708037513</v>
       </c>
       <c r="S33" t="n">
-        <v>52.29981739940166</v>
+        <v>52.43212055233587</v>
       </c>
       <c r="T33" t="n">
-        <v>11.34912212279814</v>
+        <v>11.37783206318694</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1852413839412103</v>
+        <v>0.1857099901499502</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.360562335250832</v>
+        <v>2.366533863550183</v>
       </c>
       <c r="H34" t="n">
-        <v>20.98754512613923</v>
+        <v>21.04063744138255</v>
       </c>
       <c r="I34" t="n">
-        <v>70.98854731827049</v>
+        <v>71.16812746021826</v>
       </c>
       <c r="J34" t="n">
-        <v>166.8917571022338</v>
+        <v>167.3139441529979</v>
       </c>
       <c r="K34" t="n">
-        <v>274.2544240409603</v>
+        <v>274.9482070561031</v>
       </c>
       <c r="L34" t="n">
-        <v>350.9512402790192</v>
+        <v>351.8390436772701</v>
       </c>
       <c r="M34" t="n">
-        <v>370.0288758793645</v>
+        <v>370.9649400835983</v>
       </c>
       <c r="N34" t="n">
-        <v>361.2304162661571</v>
+        <v>362.1442229558206</v>
       </c>
       <c r="O34" t="n">
-        <v>333.6547562589087</v>
+        <v>334.4988046407115</v>
       </c>
       <c r="P34" t="n">
-        <v>285.4992846197914</v>
+        <v>286.2215138242875</v>
       </c>
       <c r="Q34" t="n">
-        <v>197.6649060908674</v>
+        <v>198.1649401560067</v>
       </c>
       <c r="R34" t="n">
-        <v>106.1394664559147</v>
+        <v>106.4079680829019</v>
       </c>
       <c r="S34" t="n">
-        <v>41.13816360614403</v>
+        <v>41.24223105841546</v>
       </c>
       <c r="T34" t="n">
-        <v>10.08603906879901</v>
+        <v>10.11155378062351</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1287579455591364</v>
+        <v>0.1290836652845556</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M35" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S35" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T35" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U35" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I36" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K36" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N36" t="n">
-        <v>253.1395035713248</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>159.4963216193707</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H37" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J37" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K37" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P37" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q37" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R37" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T37" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M38" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T38" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U38" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I39" t="n">
-        <v>100.5719078530531</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J39" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K39" t="n">
-        <v>471.6886536848224</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745725</v>
+        <v>296.5366259989379</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N39" t="n">
-        <v>217.4564689916175</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436714</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H40" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R40" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T40" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,10 +34205,10 @@
         <v>28.21138103088193</v>
       </c>
       <c r="I42" t="n">
-        <v>100.5719078530532</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>275.9770021735821</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>471.688653684823</v>
@@ -34217,13 +34217,13 @@
         <v>634.2436048745732</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927647</v>
+        <v>496.2241163658435</v>
       </c>
       <c r="O42" t="n">
-        <v>326.9083219859672</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>557.796143198246</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>143.5758809555359</v>
       </c>
       <c r="N45" t="n">
-        <v>320.9147064709964</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>563.2406960631366</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>834.403327679625</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
         <v>888.8531821509645</v>
@@ -35428,7 +35428,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554004</v>
@@ -35653,22 +35653,22 @@
         <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>703.3044639766126</v>
       </c>
       <c r="P14" t="n">
-        <v>419.4651718365632</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>404.0461784550341</v>
+        <v>422.5701297360084</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>198.417897604067</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865553992</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923307</v>
       </c>
       <c r="M20" t="n">
-        <v>952.5910917910107</v>
+        <v>988.4346493230577</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129099</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.853182150963</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908531</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636232</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152067</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597665</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609559</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340044</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013279</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.306104600458</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525873</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859615</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127265</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306594</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443191</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701975</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934832</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675395</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226392</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451099</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789332</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>752.8076060721794</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>331.1491914695948</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>265.5995565090823</v>
+        <v>266.7294381353893</v>
       </c>
       <c r="K26" t="n">
-        <v>449.3159141560225</v>
+        <v>451.0093138222604</v>
       </c>
       <c r="L26" t="n">
-        <v>899.258419479479</v>
+        <v>596.7914416953008</v>
       </c>
       <c r="M26" t="n">
-        <v>693.6972408751074</v>
+        <v>696.0347990378524</v>
       </c>
       <c r="N26" t="n">
-        <v>709.582399974475</v>
+        <v>999.4109354904039</v>
       </c>
       <c r="O26" t="n">
-        <v>656.5685780519766</v>
+        <v>658.8115841977453</v>
       </c>
       <c r="P26" t="n">
-        <v>525.5165952993239</v>
+        <v>527.4309491509562</v>
       </c>
       <c r="Q26" t="n">
-        <v>345.9817373975437</v>
+        <v>347.4193374148973</v>
       </c>
       <c r="R26" t="n">
-        <v>114.9830177379449</v>
+        <v>115.8192589398301</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>139.1813500985074</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>316.8273631965436</v>
+        <v>258.9478701046902</v>
       </c>
       <c r="L27" t="n">
-        <v>254.4597058292716</v>
+        <v>474.3504910450113</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>600.9668763386552</v>
+        <v>602.8194016434597</v>
       </c>
       <c r="O27" t="n">
-        <v>527.3230458661444</v>
+        <v>529.0177445998453</v>
       </c>
       <c r="P27" t="n">
-        <v>403.6948841878306</v>
+        <v>405.0550293289051</v>
       </c>
       <c r="Q27" t="n">
-        <v>219.4359084623107</v>
+        <v>220.3451294689218</v>
       </c>
       <c r="R27" t="n">
-        <v>29.13896477415426</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.53257698556104</v>
+        <v>73.95476403632523</v>
       </c>
       <c r="K28" t="n">
-        <v>251.9849322150774</v>
+        <v>252.6787152302203</v>
       </c>
       <c r="L28" t="n">
-        <v>378.5412655393353</v>
+        <v>379.4290689375863</v>
       </c>
       <c r="M28" t="n">
-        <v>409.6127528412051</v>
+        <v>410.548817045439</v>
       </c>
       <c r="N28" t="n">
-        <v>405.3625886453857</v>
+        <v>406.2763953350493</v>
       </c>
       <c r="O28" t="n">
-        <v>358.2398841729483</v>
+        <v>359.0839325547513</v>
       </c>
       <c r="P28" t="n">
-        <v>282.7778438846849</v>
+        <v>283.5000730891811</v>
       </c>
       <c r="Q28" t="n">
-        <v>111.502862839173</v>
+        <v>112.0028969043124</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>265.5995565090823</v>
+        <v>266.7294381353893</v>
       </c>
       <c r="K29" t="n">
-        <v>449.3159141560225</v>
+        <v>451.0093138222604</v>
       </c>
       <c r="L29" t="n">
-        <v>594.6906296686914</v>
+        <v>596.7914416953008</v>
       </c>
       <c r="M29" t="n">
-        <v>693.6972408751074</v>
+        <v>983.487952256121</v>
       </c>
       <c r="N29" t="n">
-        <v>709.582399974475</v>
+        <v>711.9577822721351</v>
       </c>
       <c r="O29" t="n">
-        <v>656.5685780519766</v>
+        <v>658.8115841977453</v>
       </c>
       <c r="P29" t="n">
-        <v>830.0843851101118</v>
+        <v>527.4309491509562</v>
       </c>
       <c r="Q29" t="n">
-        <v>345.9817373975437</v>
+        <v>347.4193374148973</v>
       </c>
       <c r="R29" t="n">
-        <v>114.9830177379449</v>
+        <v>115.8192589398301</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>139.1813500985074</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>316.8273631965436</v>
+        <v>317.9775415156887</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>254.4597058292716</v>
+        <v>573.0970414754895</v>
       </c>
       <c r="N30" t="n">
-        <v>600.9668763386552</v>
+        <v>602.8194016434597</v>
       </c>
       <c r="O30" t="n">
-        <v>527.3230458661444</v>
+        <v>529.0177445998453</v>
       </c>
       <c r="P30" t="n">
-        <v>403.6948841878306</v>
+        <v>217.6976034138795</v>
       </c>
       <c r="Q30" t="n">
-        <v>219.4359084623107</v>
+        <v>220.3451294689218</v>
       </c>
       <c r="R30" t="n">
-        <v>29.13896477415426</v>
+        <v>29.58120407354906</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.53257698556104</v>
+        <v>73.95476403632523</v>
       </c>
       <c r="K31" t="n">
-        <v>251.9849322150774</v>
+        <v>252.678715230221</v>
       </c>
       <c r="L31" t="n">
-        <v>378.5412655393353</v>
+        <v>379.4290689375863</v>
       </c>
       <c r="M31" t="n">
-        <v>409.6127528412051</v>
+        <v>410.548817045439</v>
       </c>
       <c r="N31" t="n">
-        <v>405.3625886453857</v>
+        <v>406.2763953350493</v>
       </c>
       <c r="O31" t="n">
-        <v>358.2398841729483</v>
+        <v>359.0839325547513</v>
       </c>
       <c r="P31" t="n">
-        <v>282.7778438846849</v>
+        <v>283.5000730891811</v>
       </c>
       <c r="Q31" t="n">
-        <v>111.502862839173</v>
+        <v>112.0028969043124</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>265.5995565090823</v>
+        <v>435.8260533074629</v>
       </c>
       <c r="K32" t="n">
-        <v>449.3159141560225</v>
+        <v>451.0093138222601</v>
       </c>
       <c r="L32" t="n">
-        <v>899.258419479479</v>
+        <v>596.7914416953004</v>
       </c>
       <c r="M32" t="n">
-        <v>693.6972408751074</v>
+        <v>696.0347990378521</v>
       </c>
       <c r="N32" t="n">
-        <v>709.582399974475</v>
+        <v>711.9577822721349</v>
       </c>
       <c r="O32" t="n">
-        <v>656.5685780519766</v>
+        <v>658.811584197745</v>
       </c>
       <c r="P32" t="n">
-        <v>525.5165952993239</v>
+        <v>527.4309491509559</v>
       </c>
       <c r="Q32" t="n">
-        <v>345.9817373975437</v>
+        <v>400.0594555881104</v>
       </c>
       <c r="R32" t="n">
-        <v>114.9830177379449</v>
+        <v>181.5356788128124</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>139.8542998546717</v>
       </c>
       <c r="K33" t="n">
-        <v>316.8273631965436</v>
+        <v>317.9775415156885</v>
       </c>
       <c r="L33" t="n">
-        <v>41.78468162652641</v>
+        <v>77.84330355920926</v>
       </c>
       <c r="M33" t="n">
-        <v>571.2922827635628</v>
+        <v>573.0970414754893</v>
       </c>
       <c r="N33" t="n">
-        <v>600.9668763386552</v>
+        <v>602.8194016434594</v>
       </c>
       <c r="O33" t="n">
-        <v>527.3230458661444</v>
+        <v>529.0177445998451</v>
       </c>
       <c r="P33" t="n">
-        <v>403.6948841878306</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>220.3451294689217</v>
       </c>
       <c r="R33" t="n">
-        <v>29.13896477415426</v>
+        <v>29.581204073549</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.53257698556104</v>
+        <v>73.95476403632517</v>
       </c>
       <c r="K34" t="n">
-        <v>251.9849322150774</v>
+        <v>252.6787152302202</v>
       </c>
       <c r="L34" t="n">
-        <v>378.5412655393353</v>
+        <v>379.4290689375862</v>
       </c>
       <c r="M34" t="n">
-        <v>409.6127528412051</v>
+        <v>410.5488170454389</v>
       </c>
       <c r="N34" t="n">
-        <v>405.3625886453857</v>
+        <v>406.2763953350492</v>
       </c>
       <c r="O34" t="n">
-        <v>358.2398841729483</v>
+        <v>359.0839325547512</v>
       </c>
       <c r="P34" t="n">
-        <v>282.7778438846849</v>
+        <v>283.500073089181</v>
       </c>
       <c r="Q34" t="n">
-        <v>111.502862839173</v>
+        <v>112.0028969043124</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>333.6317139898036</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N35" t="n">
-        <v>744.73230092637</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P35" t="n">
-        <v>605.1570404425727</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K36" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946983</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N36" t="n">
-        <v>121.7977914879915</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>25.52191420504044</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K37" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L37" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N37" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O37" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607202</v>
+        <v>333.6317139898036</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N38" t="n">
-        <v>744.73230092637</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P38" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R38" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.049527853053121</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J39" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K39" t="n">
-        <v>333.8472147104634</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946983</v>
+        <v>157.9822462190637</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N39" t="n">
-        <v>86.11475690828422</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R39" t="n">
-        <v>35.68303457970742</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L40" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O40" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>625.7775560664402</v>
       </c>
       <c r="M41" t="n">
-        <v>779.6000841311417</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N41" t="n">
         <v>744.732300926371</v>
@@ -37798,7 +37798,7 @@
         <v>553.8443926134837</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404118</v>
+        <v>418.5673812694946</v>
       </c>
       <c r="R41" t="n">
         <v>127.3573607845846</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.04952785305322</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>149.1393755069154</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>333.847214710464</v>
@@ -37865,13 +37865,13 @@
         <v>495.689225094699</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094314</v>
+        <v>364.8824042825102</v>
       </c>
       <c r="O42" t="n">
-        <v>184.3120775415228</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>423.8217357839158</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>418.5673812694946</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>1.441847033517564</v>
       </c>
       <c r="N45" t="n">
-        <v>189.5729943876631</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
